--- a/biology/Zoologie/Paul_Gourret/Paul_Gourret.xlsx
+++ b/biology/Zoologie/Paul_Gourret/Paul_Gourret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Gabriel Marie Gourret (né le 15 janvier 1859 à Roquevaire – mort le 7 avril 1903 en Suisse[1]) est un zoologiste français connu pour ses recherches en zoologie marine et ses travaux sur l'industrie de la pêche. Il travaille aussi sur les algues.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Gabriel Marie Gourret (né le 15 janvier 1859 à Roquevaire – mort le 7 avril 1903 en Suisse) est un zoologiste français connu pour ses recherches en zoologie marine et ses travaux sur l'industrie de la pêche. Il travaille aussi sur les algues.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études de sciences naturelles à Marseille, et est, par la suite, chargé de cours à la faculté des sciences de Lyon. En novembre 1886, il est nommé professeur auxiliaire de zoologie à l'école de médecine de Marseille. À partir de mai 1893, il est directeur adjoint de la station zoologique de Marseille plus connue sous le nom de station marine d'Endoume.
 Il est membre du comité consultatif des pêches maritimes du ministère de la Marine et, en 1902, il est nommé chevalier de la Légion d'honneur.
-Le genre Gourretia de la famille de Callianassidae fut créé en son honneur[2],[3].
-Il est par ailleurs le père de Léon Gourret, ingénieur[4], le grand-père de l'historien musicologue Jean Gourret et l'arrière-grand-père de l'écrivain Philippe Guénin.
+Le genre Gourretia de la famille de Callianassidae fut créé en son honneur,.
+Il est par ailleurs le père de Léon Gourret, ingénieur, le grand-père de l'historien musicologue Jean Gourret et l'arrière-grand-père de l'écrivain Philippe Guénin.
 </t>
         </is>
       </c>
@@ -545,13 +559,15 @@
           <t>Publications choisies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Paul Gourret est à la tête d'un grand nombre de publications[5], dont :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Gourret est à la tête d'un grand nombre de publications, dont :
 Sur les péridiniens du Golfe de Marseille, 1883
 Considérations sur la faune pélagique du golfe de Marseille, 1884
 Révision des crustacés podophthalmes de golfe de Marseille suivie d'un essai de classification de la classe des crustacés, 1888
-Les pêcheries et les poissons de la Méditerranée (Provence), 1894 [6]</t>
+Les pêcheries et les poissons de la Méditerranée (Provence), 1894 </t>
         </is>
       </c>
     </row>
